--- a/Avr Prompt Size/PromptsToTokens.xlsx
+++ b/Avr Prompt Size/PromptsToTokens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedoo\OneDrive\Desktop\All\YOU and I\Year 4\Sus Computing\Coursework\2025-CW-iu22229\Avr Prompt Size\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B671C1E6-C6BF-465F-9F1F-14E3212A7047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54B9213-CCA6-4216-A773-AD66E1DB1DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{E2142325-F792-4DB8-AF53-E0E4712F84D5}"/>
   </bookViews>
@@ -17,12 +17,47 @@
     <sheet name="PromptsToTimes" sheetId="1" r:id="rId2"/>
     <sheet name="ResponseTokens" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -100,6 +135,27 @@
   </si>
   <si>
     <t>Response Tokens</t>
+  </si>
+  <si>
+    <t>Characters</t>
+  </si>
+  <si>
+    <t>Words</t>
+  </si>
+  <si>
+    <t>Tokens</t>
+  </si>
+  <si>
+    <t>MAX DIFFERENCE</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>tokens/prompt</t>
+  </si>
+  <si>
+    <t>MIN</t>
   </si>
 </sst>
 </file>
@@ -960,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F512370-5DA7-40E8-8379-83C3AE91278A}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="F25" sqref="D24:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -976,7 +1032,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -987,13 +1049,13 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>2.3199999999999998</v>
+        <v>96</v>
       </c>
       <c r="D2">
-        <v>3.53</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>2.4900000000000002</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1004,13 +1066,13 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>2.2799999999999998</v>
+        <v>83</v>
       </c>
       <c r="D3">
-        <v>3.39</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>4.84</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1021,13 +1083,13 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>3.25</v>
+        <v>97</v>
       </c>
       <c r="D4">
-        <v>2.85</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>2.59</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1038,13 +1100,13 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>2.56</v>
+        <v>71</v>
       </c>
       <c r="D5">
-        <v>2.87</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>2.5499999999999998</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1055,13 +1117,13 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>3.36</v>
+        <v>66</v>
       </c>
       <c r="D6">
-        <v>2.36</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>2.36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1072,13 +1134,13 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>2.96</v>
+        <v>95</v>
       </c>
       <c r="D7">
-        <v>2.44</v>
+        <v>17</v>
       </c>
       <c r="E7">
-        <v>4.74</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1089,13 +1151,13 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>3.43</v>
+        <v>80</v>
       </c>
       <c r="D8">
-        <v>2.88</v>
+        <v>15</v>
       </c>
       <c r="E8">
-        <v>3.6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1106,13 +1168,13 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>2.54</v>
+        <v>100</v>
       </c>
       <c r="D9">
-        <v>2.62</v>
+        <v>17</v>
       </c>
       <c r="E9">
-        <v>2.4900000000000002</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1123,13 +1185,13 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>1.79</v>
+        <v>113</v>
       </c>
       <c r="D10">
-        <v>1.68</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1.76</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1140,13 +1202,13 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>2.38</v>
+        <v>105</v>
       </c>
       <c r="D11">
-        <v>2.96</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>2.58</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1157,13 +1219,13 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>2.86</v>
+        <v>100</v>
       </c>
       <c r="D12">
-        <v>2.71</v>
+        <v>15</v>
       </c>
       <c r="E12">
-        <v>2.86</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1174,13 +1236,13 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>4.22</v>
+        <v>74</v>
       </c>
       <c r="D13">
-        <v>5.85</v>
+        <v>11</v>
       </c>
       <c r="E13">
-        <v>1.77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1191,13 +1253,13 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>2.2799999999999998</v>
+        <v>64</v>
       </c>
       <c r="D14">
-        <v>2.37</v>
+        <v>11</v>
       </c>
       <c r="E14">
-        <v>2.54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1208,13 +1270,13 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>1.81</v>
+        <v>49</v>
       </c>
       <c r="D15">
-        <v>1.84</v>
+        <v>9</v>
       </c>
       <c r="E15">
-        <v>1.84</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1225,16 +1287,16 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>2.68</v>
+        <v>64</v>
       </c>
       <c r="D16">
-        <v>2.81</v>
+        <v>12</v>
       </c>
       <c r="E16">
-        <v>2.57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1242,16 +1304,16 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>2.46</v>
+        <v>63</v>
       </c>
       <c r="D17">
-        <v>2.2599999999999998</v>
+        <v>9</v>
       </c>
       <c r="E17">
-        <v>2.02</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1259,16 +1321,16 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>1.56</v>
+        <v>77</v>
       </c>
       <c r="D18">
-        <v>1.1000000000000001</v>
+        <v>14</v>
       </c>
       <c r="E18">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1276,16 +1338,16 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>1.41</v>
+        <v>131</v>
       </c>
       <c r="D19">
-        <v>1.3</v>
+        <v>20</v>
       </c>
       <c r="E19">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1293,16 +1355,16 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>2.64</v>
+        <v>52</v>
       </c>
       <c r="D20">
-        <v>2.52</v>
+        <v>8</v>
       </c>
       <c r="E20">
-        <v>2.57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1310,35 +1372,51 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>1.65</v>
+        <v>196</v>
       </c>
       <c r="D21">
-        <v>1.31</v>
+        <v>33</v>
       </c>
       <c r="E21">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
         <v>23</v>
       </c>
-      <c r="C22">
-        <v>2.52</v>
-      </c>
-      <c r="D22">
-        <v>2.58</v>
-      </c>
-      <c r="E22">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23">
-        <v>2.54</v>
+      <c r="E23">
+        <f>ROUND(AVERAGE(E2:E21),0)</f>
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" cm="1">
+        <f t="array" ref="E24">MAX((E2:E21)-E23)</f>
+        <v>19</v>
+      </c>
+      <c r="F24">
+        <f>E24+E23</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" cm="1">
+        <f t="array" ref="E25">MIN((E2:E21)-E23)</f>
+        <v>-8</v>
+      </c>
+      <c r="F25">
+        <f>E25+E23</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1348,10 +1426,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A064C467-4A3A-43BC-B53F-88B1A08C576F}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1729,6 +1807,32 @@
         <v>2.54</v>
       </c>
     </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" cm="1">
+        <f t="array" ref="C24">MAX((C2:E21)-C23)</f>
+        <v>3.3099999999999996</v>
+      </c>
+      <c r="D24">
+        <f>C24+C23</f>
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" cm="1">
+        <f t="array" ref="C25">ABS(MIN((C3:E22)-C23))</f>
+        <v>1.44</v>
+      </c>
+      <c r="D25">
+        <f>C23-C25</f>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1736,10 +1840,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B2A5B5-932A-4EF5-9CC2-9A098D4563D7}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1875,7 +1979,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1883,7 +1987,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1891,7 +1995,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1899,7 +2003,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1907,7 +2011,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1915,13 +2019,39 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22">
         <f>AVERAGE(B2:B21)</f>
         <v>587.29999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" cm="1">
+        <f t="array" ref="C24">MAX((B2:B21)-B22)</f>
+        <v>769.7</v>
+      </c>
+      <c r="D24">
+        <f>C24+B22</f>
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" cm="1">
+        <f t="array" ref="C25">MIN((B2:B21)-B22)</f>
+        <v>-571.29999999999995</v>
+      </c>
+      <c r="D25">
+        <f>C25+B22</f>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
